--- a/06.Artifacts/TEST CASES/test case template 10.xlsx
+++ b/06.Artifacts/TEST CASES/test case template 10.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/GitHub/Aptech/tester-tutorials/06.Artifacts/TEST CASES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD78A2A-E0AE-204D-A0CB-F5977D707F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A2B63D-70DE-0C43-8EE0-762B7E0AF01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="API-001" sheetId="1" r:id="rId1"/>
+    <sheet name="TC-CHUYENTIEN (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Date Tested</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Step Details</t>
   </si>
   <si>
-    <t>Test the Login Functionality in Banking</t>
-  </si>
-  <si>
     <t>Mark</t>
   </si>
   <si>
@@ -67,18 +64,6 @@
     <t>1-Jan-2017</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Navigate to http://demo.guru99.com</t>
-  </si>
-  <si>
-    <t>As Expected</t>
-  </si>
-  <si>
-    <t>Enter Userid &amp; Password</t>
-  </si>
-  <si>
     <t>Test Data</t>
   </si>
   <si>
@@ -88,18 +73,6 @@
     <t>Verify on entering valid userid and password, the customer can login</t>
   </si>
   <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
-    <t>Site should open</t>
-  </si>
-  <si>
-    <t>Credential can be entered</t>
-  </si>
-  <si>
-    <t>Cutomer is logged in</t>
-  </si>
-  <si>
     <t>Test Case Status</t>
   </si>
   <si>
@@ -118,13 +91,100 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>Install POSTMAN</t>
+    <t>Chuyển tiền thành công từ tk A =&gt; B</t>
+  </si>
+  <si>
+    <t>Số tài khoản A</t>
+  </si>
+  <si>
+    <t>Số PIN tài khoản A</t>
+  </si>
+  <si>
+    <t>Số tk B cần chuyển tới</t>
+  </si>
+  <si>
+    <t>Số tiền cần chuyển</t>
+  </si>
+  <si>
+    <t>Đã cài APP Techcombank</t>
+  </si>
+  <si>
+    <t>Tài khoản A &amp; B đã có trong hệ thống và đang hoạt động</t>
+  </si>
+  <si>
+    <t>Số tiền trong tài khoản A &gt;= 1000000</t>
+  </si>
+  <si>
+    <t>Số điện thoại của TK A</t>
+  </si>
+  <si>
+    <t>Tài khoản A có số điện thoại là: 0905157803</t>
+  </si>
+  <si>
+    <t>Tài khoản B có số điện thoại là: 0905157888</t>
+  </si>
+  <si>
+    <t>Số điện thoại của TK B</t>
+  </si>
+  <si>
+    <t>0905157803</t>
+  </si>
+  <si>
+    <t>0905157888</t>
+  </si>
+  <si>
+    <t>Mở App Techcombank, vào chức năng chuyển tiền ở trang chủ</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Đăng nhập tài khoản A theo test data (1, 2)</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Nhập số tài khoản cần chuyển theo test data (3)</t>
+  </si>
+  <si>
+    <t>Hợp lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập số tiền cần chuyển theo test data (4)	</t>
+  </si>
+  <si>
+    <t>Nhận 6 số OTP gửi về tin nhắn của TK A theo test data (5), nhập vào form OTP và xác nhận</t>
+  </si>
+  <si>
+    <t>Nhận về 6 số nguyên, nhập vào OTP và hợp lệ</t>
+  </si>
+  <si>
+    <t>Thông báo: "Tài khoản A - 50K"</t>
+  </si>
+  <si>
+    <t>Thông báo: "Tài khoản B + 50K"</t>
+  </si>
+  <si>
+    <t>Nhận dc thông báo:"Tài khoản A - 50K" về số dt theo test data (5)</t>
+  </si>
+  <si>
+    <t>Nhận dc thông báo:"Tài khoản B  50K" về số dt theo test data (6)</t>
+  </si>
+  <si>
+    <t>Vào dc chức năng chuyển tiền</t>
+  </si>
+  <si>
+    <t>Nhận thông báo đúng req</t>
+  </si>
+  <si>
+    <t>Nhận thông báo ko đúng req</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -350,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -371,6 +431,57 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -382,107 +493,74 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -765,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -780,129 +858,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-    </row>
-    <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="35">
-        <v>1</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="25"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -918,396 +996,538 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>2</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>3</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>5</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-    </row>
-    <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43">
+      <c r="B17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16">
+        <v>123456789</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16">
+        <v>11223344</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16">
+        <v>123344556</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>4</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16">
+        <v>500000</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="46">
+        <v>5</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="46">
+        <v>6</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+    </row>
+    <row r="27" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="51">
         <v>1</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43">
+      <c r="B27" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="26"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51">
         <v>2</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="43">
+      <c r="B28" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="51">
         <v>3</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="43">
+      <c r="B29" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="51">
         <v>4</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="44" t="s">
+      <c r="B30" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="45"/>
-    </row>
-    <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="45"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="45"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="45"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="45"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>1</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>2</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>3</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>4</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="27"/>
+    </row>
+    <row r="31" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="51">
+        <v>5</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="27"/>
+    </row>
+    <row r="32" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="51">
+        <v>6</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="26"/>
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="52">
+        <v>7</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="26"/>
+      <c r="K33" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:K19"/>
+  <mergeCells count="63">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L25:N26"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="I25:K26"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F25:H26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B3:K3"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
     <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="I22:K23"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F22:H23"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
